--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dhh-Cdon.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dhh-Cdon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Dhh</t>
+  </si>
+  <si>
+    <t>Cdon</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Dhh</t>
-  </si>
-  <si>
-    <t>Cdon</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.5445495</v>
+        <v>3.56406</v>
       </c>
       <c r="H2">
-        <v>11.089099</v>
+        <v>7.12812</v>
       </c>
       <c r="I2">
-        <v>0.4799520355219333</v>
+        <v>0.6038279062964319</v>
       </c>
       <c r="J2">
-        <v>0.4078626342387197</v>
+        <v>0.5810146392357601</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.623902</v>
+        <v>1.7455905</v>
       </c>
       <c r="N2">
-        <v>5.247803999999999</v>
+        <v>3.491181</v>
       </c>
       <c r="O2">
-        <v>0.04297728403825449</v>
+        <v>0.06735438749894324</v>
       </c>
       <c r="P2">
-        <v>0.03946320605540395</v>
+        <v>0.05664184489359518</v>
       </c>
       <c r="Q2">
-        <v>14.548354522149</v>
+        <v>6.22138927743</v>
       </c>
       <c r="R2">
-        <v>58.193418088596</v>
+        <v>24.88555710972</v>
       </c>
       <c r="S2">
-        <v>0.02062703495536454</v>
+        <v>0.04067045878336546</v>
       </c>
       <c r="T2">
-        <v>0.01609556717726245</v>
+        <v>0.03290974107650008</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.5445495</v>
+        <v>3.56406</v>
       </c>
       <c r="H3">
-        <v>11.089099</v>
+        <v>7.12812</v>
       </c>
       <c r="I3">
-        <v>0.4799520355219333</v>
+        <v>0.6038279062964319</v>
       </c>
       <c r="J3">
-        <v>0.4078626342387197</v>
+        <v>0.5810146392357601</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>28.808021</v>
       </c>
       <c r="O3">
-        <v>0.1572836309050415</v>
+        <v>0.3705234435972038</v>
       </c>
       <c r="P3">
-        <v>0.2166347807142577</v>
+        <v>0.4673889601179179</v>
       </c>
       <c r="Q3">
-        <v>53.24249947717983</v>
+        <v>34.22450510842</v>
       </c>
       <c r="R3">
-        <v>319.454996863079</v>
+        <v>205.34703065052</v>
       </c>
       <c r="S3">
-        <v>0.07548859880715511</v>
+        <v>0.2237323951810437</v>
       </c>
       <c r="T3">
-        <v>0.08835723232984452</v>
+        <v>0.2715598280456892</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.5445495</v>
+        <v>3.56406</v>
       </c>
       <c r="H4">
-        <v>11.089099</v>
+        <v>7.12812</v>
       </c>
       <c r="I4">
-        <v>0.4799520355219333</v>
+        <v>0.6038279062964319</v>
       </c>
       <c r="J4">
-        <v>0.4078626342387197</v>
+        <v>0.5810146392357601</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.146072</v>
+        <v>0.03863166666666667</v>
       </c>
       <c r="N4">
-        <v>0.438216</v>
+        <v>0.115895</v>
       </c>
       <c r="O4">
-        <v>0.002392535176251214</v>
+        <v>0.001490620077501955</v>
       </c>
       <c r="P4">
-        <v>0.003295360936646052</v>
+        <v>0.001880311165173966</v>
       </c>
       <c r="Q4">
-        <v>0.8099034345640002</v>
+        <v>0.1376855779</v>
       </c>
       <c r="R4">
-        <v>4.859420607384</v>
+        <v>0.8261134674</v>
       </c>
       <c r="S4">
-        <v>0.001148302127899597</v>
+        <v>0.0009000780004814302</v>
       </c>
       <c r="T4">
-        <v>0.001344054592387833</v>
+        <v>0.001092488313284524</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.5445495</v>
+        <v>3.56406</v>
       </c>
       <c r="H5">
-        <v>11.089099</v>
+        <v>7.12812</v>
       </c>
       <c r="I5">
-        <v>0.4799520355219333</v>
+        <v>0.6038279062964319</v>
       </c>
       <c r="J5">
-        <v>0.4078626342387197</v>
+        <v>0.5810146392357601</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.5561205</v>
+        <v>14.3678575</v>
       </c>
       <c r="N5">
-        <v>95.112241</v>
+        <v>28.735715</v>
       </c>
       <c r="O5">
-        <v>0.7789288237464499</v>
+        <v>0.5543901857764452</v>
       </c>
       <c r="P5">
-        <v>0.7152389770986568</v>
+        <v>0.4662158484296736</v>
       </c>
       <c r="Q5">
-        <v>263.6772641402148</v>
+        <v>51.20790620145</v>
       </c>
       <c r="R5">
-        <v>1054.709056560859</v>
+        <v>204.8316248058</v>
       </c>
       <c r="S5">
-        <v>0.3738484744838138</v>
+        <v>0.3347562651486808</v>
       </c>
       <c r="T5">
-        <v>0.2917192533096655</v>
+        <v>0.2708782329813607</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.5445495</v>
+        <v>3.56406</v>
       </c>
       <c r="H6">
-        <v>11.089099</v>
+        <v>7.12812</v>
       </c>
       <c r="I6">
-        <v>0.4799520355219333</v>
+        <v>0.6038279062964319</v>
       </c>
       <c r="J6">
-        <v>0.4078626342387197</v>
+        <v>0.5810146392357601</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.008459666666667</v>
+        <v>0.06980833333333333</v>
       </c>
       <c r="N6">
-        <v>3.025379</v>
+        <v>0.209425</v>
       </c>
       <c r="O6">
-        <v>0.01651771199360982</v>
+        <v>0.002693585657110719</v>
       </c>
       <c r="P6">
-        <v>0.02275068864475349</v>
+        <v>0.003397766648833495</v>
       </c>
       <c r="Q6">
-        <v>5.591454540586835</v>
+        <v>0.2488010885</v>
       </c>
       <c r="R6">
-        <v>33.548727243521</v>
+        <v>1.492806531</v>
       </c>
       <c r="S6">
-        <v>0.007927709493498082</v>
+        <v>0.001626462187763264</v>
       </c>
       <c r="T6">
-        <v>0.009279155801394087</v>
+        <v>0.001974152163679291</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.5445495</v>
+        <v>3.56406</v>
       </c>
       <c r="H7">
-        <v>11.089099</v>
+        <v>7.12812</v>
       </c>
       <c r="I7">
-        <v>0.4799520355219333</v>
+        <v>0.6038279062964319</v>
       </c>
       <c r="J7">
-        <v>0.4078626342387197</v>
+        <v>0.5810146392357601</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.116002</v>
+        <v>0.09194599999999999</v>
       </c>
       <c r="N7">
-        <v>0.348006</v>
+        <v>0.275838</v>
       </c>
       <c r="O7">
-        <v>0.001900014140393048</v>
+        <v>0.003547777392795065</v>
       </c>
       <c r="P7">
-        <v>0.002616986550282158</v>
+        <v>0.004475268744805699</v>
       </c>
       <c r="Q7">
-        <v>0.6431788310990001</v>
+        <v>0.3277010607599999</v>
       </c>
       <c r="R7">
-        <v>3.859072986594001</v>
+        <v>1.96620636456</v>
       </c>
       <c r="S7">
-        <v>0.0009119156542020995</v>
+        <v>0.002142246995097258</v>
       </c>
       <c r="T7">
-        <v>0.001067371028165381</v>
+        <v>0.002600196655246356</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.450645</v>
       </c>
       <c r="I8">
-        <v>0.01300303929398181</v>
+        <v>0.02544963018139945</v>
       </c>
       <c r="J8">
-        <v>0.01657494957944805</v>
+        <v>0.03673217371458381</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.623902</v>
+        <v>1.7455905</v>
       </c>
       <c r="N8">
-        <v>5.247803999999999</v>
+        <v>3.491181</v>
       </c>
       <c r="O8">
-        <v>0.04297728403825449</v>
+        <v>0.06735438749894324</v>
       </c>
       <c r="P8">
-        <v>0.03946320605540395</v>
+        <v>0.05664184489359518</v>
       </c>
       <c r="Q8">
-        <v>0.3941494389299999</v>
+        <v>0.2622138769575</v>
       </c>
       <c r="R8">
-        <v>2.364896633579999</v>
+        <v>1.573283261745</v>
       </c>
       <c r="S8">
-        <v>0.0005588353130980404</v>
+        <v>0.001714144252942779</v>
       </c>
       <c r="T8">
-        <v>0.0006541006506116895</v>
+        <v>0.00208057808614605</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.450645</v>
       </c>
       <c r="I9">
-        <v>0.01300303929398181</v>
+        <v>0.02544963018139945</v>
       </c>
       <c r="J9">
-        <v>0.01657494957944805</v>
+        <v>0.03673217371458381</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>28.808021</v>
       </c>
       <c r="O9">
-        <v>0.1572836309050415</v>
+        <v>0.3705234435972038</v>
       </c>
       <c r="P9">
-        <v>0.2166347807142577</v>
+        <v>0.4673889601179179</v>
       </c>
       <c r="Q9">
         <v>1.442465624838333</v>
@@ -1013,10 +1013,10 @@
         <v>12.982190623545</v>
       </c>
       <c r="S9">
-        <v>0.002045165232958386</v>
+        <v>0.009429684613087455</v>
       </c>
       <c r="T9">
-        <v>0.003590710567493606</v>
+        <v>0.01716821247533004</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1045,40 +1045,40 @@
         <v>0.450645</v>
       </c>
       <c r="I10">
-        <v>0.01300303929398181</v>
+        <v>0.02544963018139945</v>
       </c>
       <c r="J10">
-        <v>0.01657494957944805</v>
+        <v>0.03673217371458381</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.146072</v>
+        <v>0.03863166666666667</v>
       </c>
       <c r="N10">
-        <v>0.438216</v>
+        <v>0.115895</v>
       </c>
       <c r="O10">
-        <v>0.002392535176251214</v>
+        <v>0.001490620077501955</v>
       </c>
       <c r="P10">
-        <v>0.003295360936646052</v>
+        <v>0.001880311165173966</v>
       </c>
       <c r="Q10">
-        <v>0.02194220548</v>
+        <v>0.005803055808333333</v>
       </c>
       <c r="R10">
-        <v>0.19747984932</v>
+        <v>0.052227502275</v>
       </c>
       <c r="S10">
-        <v>3.111022890902822E-05</v>
+        <v>3.793572971339373E-05</v>
       </c>
       <c r="T10">
-        <v>5.462044137099102E-05</v>
+        <v>6.906791635664163E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1107,10 +1107,10 @@
         <v>0.450645</v>
       </c>
       <c r="I11">
-        <v>0.01300303929398181</v>
+        <v>0.02544963018139945</v>
       </c>
       <c r="J11">
-        <v>0.01657494957944805</v>
+        <v>0.03673217371458381</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>47.5561205</v>
+        <v>14.3678575</v>
       </c>
       <c r="N11">
-        <v>95.112241</v>
+        <v>28.735715</v>
       </c>
       <c r="O11">
-        <v>0.7789288237464499</v>
+        <v>0.5543901857764452</v>
       </c>
       <c r="P11">
-        <v>0.7152389770986568</v>
+        <v>0.4662158484296736</v>
       </c>
       <c r="Q11">
-        <v>7.143642640907499</v>
+        <v>2.1582677143625</v>
       </c>
       <c r="R11">
-        <v>42.86185584544499</v>
+        <v>12.949606286175</v>
       </c>
       <c r="S11">
-        <v>0.01012844210239012</v>
+        <v>0.01410902520420787</v>
       </c>
       <c r="T11">
-        <v>0.01185504998266624</v>
+        <v>0.01712512153301085</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1169,10 +1169,10 @@
         <v>0.450645</v>
       </c>
       <c r="I12">
-        <v>0.01300303929398181</v>
+        <v>0.02544963018139945</v>
       </c>
       <c r="J12">
-        <v>0.01657494957944805</v>
+        <v>0.03673217371458381</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.008459666666667</v>
+        <v>0.06980833333333333</v>
       </c>
       <c r="N12">
-        <v>3.025379</v>
+        <v>0.209425</v>
       </c>
       <c r="O12">
-        <v>0.01651771199360982</v>
+        <v>0.002693585657110719</v>
       </c>
       <c r="P12">
-        <v>0.02275068864475349</v>
+        <v>0.003397766648833495</v>
       </c>
       <c r="Q12">
-        <v>0.1514857688283333</v>
+        <v>0.01048625879166667</v>
       </c>
       <c r="R12">
-        <v>1.363371919455</v>
+        <v>0.09437632912499999</v>
       </c>
       <c r="S12">
-        <v>0.000214780458099583</v>
+        <v>6.855075883538963E-05</v>
       </c>
       <c r="T12">
-        <v>0.0003770915171845105</v>
+        <v>0.0001248073547865712</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1231,40 +1231,40 @@
         <v>0.450645</v>
       </c>
       <c r="I13">
-        <v>0.01300303929398181</v>
+        <v>0.02544963018139945</v>
       </c>
       <c r="J13">
-        <v>0.01657494957944805</v>
+        <v>0.03673217371458381</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.116002</v>
+        <v>0.09194599999999999</v>
       </c>
       <c r="N13">
-        <v>0.348006</v>
+        <v>0.275838</v>
       </c>
       <c r="O13">
-        <v>0.001900014140393048</v>
+        <v>0.003547777392795065</v>
       </c>
       <c r="P13">
-        <v>0.002616986550282158</v>
+        <v>0.004475268744805699</v>
       </c>
       <c r="Q13">
-        <v>0.01742524043</v>
+        <v>0.01381166839</v>
       </c>
       <c r="R13">
-        <v>0.15682716387</v>
+        <v>0.12430501551</v>
       </c>
       <c r="S13">
-        <v>2.470595852665187E-05</v>
+        <v>9.028962261256392E-05</v>
       </c>
       <c r="T13">
-        <v>4.337642012102046E-05</v>
+        <v>0.0001643863489536504</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,19 +1284,19 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2266603333333334</v>
+        <v>1.87487</v>
       </c>
       <c r="H14">
-        <v>0.6799810000000001</v>
+        <v>3.74974</v>
       </c>
       <c r="I14">
-        <v>0.0196203656140888</v>
+        <v>0.3176430325746456</v>
       </c>
       <c r="J14">
-        <v>0.025010042916226</v>
+        <v>0.3056421375240455</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.623902</v>
+        <v>1.7455905</v>
       </c>
       <c r="N14">
-        <v>5.247803999999999</v>
+        <v>3.491181</v>
       </c>
       <c r="O14">
-        <v>0.04297728403825449</v>
+        <v>0.06735438749894324</v>
       </c>
       <c r="P14">
-        <v>0.03946320605540395</v>
+        <v>0.05664184489359518</v>
       </c>
       <c r="Q14">
-        <v>0.594734501954</v>
+        <v>3.272755260735</v>
       </c>
       <c r="R14">
-        <v>3.568407011724</v>
+        <v>13.09102104294</v>
       </c>
       <c r="S14">
-        <v>0.0008432300259310959</v>
+        <v>0.02139465190237213</v>
       </c>
       <c r="T14">
-        <v>0.0009869764770575227</v>
+        <v>0.01731213454658387</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,19 +1346,19 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2266603333333334</v>
+        <v>1.87487</v>
       </c>
       <c r="H15">
-        <v>0.6799810000000001</v>
+        <v>3.74974</v>
       </c>
       <c r="I15">
-        <v>0.0196203656140888</v>
+        <v>0.3176430325746456</v>
       </c>
       <c r="J15">
-        <v>0.025010042916226</v>
+        <v>0.3056421375240455</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>28.808021</v>
       </c>
       <c r="O15">
-        <v>0.1572836309050415</v>
+        <v>0.3705234435972038</v>
       </c>
       <c r="P15">
-        <v>0.2166347807142577</v>
+        <v>0.4673889601179179</v>
       </c>
       <c r="Q15">
-        <v>2.176545214177889</v>
+        <v>18.00376477742333</v>
       </c>
       <c r="R15">
-        <v>19.588906927601</v>
+        <v>108.02258866454</v>
       </c>
       <c r="S15">
-        <v>0.00308596234346831</v>
+        <v>0.1176941902642165</v>
       </c>
       <c r="T15">
-        <v>0.005418045162810793</v>
+        <v>0.1428537608255813</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2266603333333334</v>
+        <v>1.87487</v>
       </c>
       <c r="H16">
-        <v>0.6799810000000001</v>
+        <v>3.74974</v>
       </c>
       <c r="I16">
-        <v>0.0196203656140888</v>
+        <v>0.3176430325746456</v>
       </c>
       <c r="J16">
-        <v>0.025010042916226</v>
+        <v>0.3056421375240455</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.146072</v>
+        <v>0.03863166666666667</v>
       </c>
       <c r="N16">
-        <v>0.438216</v>
+        <v>0.115895</v>
       </c>
       <c r="O16">
-        <v>0.002392535176251214</v>
+        <v>0.001490620077501955</v>
       </c>
       <c r="P16">
-        <v>0.003295360936646052</v>
+        <v>0.001880311165173966</v>
       </c>
       <c r="Q16">
-        <v>0.03310872821066667</v>
+        <v>0.07242935288333334</v>
       </c>
       <c r="R16">
-        <v>0.297978553896</v>
+        <v>0.4345761173</v>
       </c>
       <c r="S16">
-        <v>4.694241490261719E-05</v>
+        <v>0.0004734850818343741</v>
       </c>
       <c r="T16">
-        <v>8.241711844997248E-05</v>
+        <v>0.0005747023237340997</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2266603333333334</v>
+        <v>1.87487</v>
       </c>
       <c r="H17">
-        <v>0.6799810000000001</v>
+        <v>3.74974</v>
       </c>
       <c r="I17">
-        <v>0.0196203656140888</v>
+        <v>0.3176430325746456</v>
       </c>
       <c r="J17">
-        <v>0.025010042916226</v>
+        <v>0.3056421375240455</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>47.5561205</v>
+        <v>14.3678575</v>
       </c>
       <c r="N17">
-        <v>95.112241</v>
+        <v>28.735715</v>
       </c>
       <c r="O17">
-        <v>0.7789288237464499</v>
+        <v>0.5543901857764452</v>
       </c>
       <c r="P17">
-        <v>0.7152389770986568</v>
+        <v>0.4662158484296736</v>
       </c>
       <c r="Q17">
-        <v>10.77908612457017</v>
+        <v>26.937864991025</v>
       </c>
       <c r="R17">
-        <v>64.67451674742101</v>
+        <v>107.7514599641</v>
       </c>
       <c r="S17">
-        <v>0.01528286830925748</v>
+        <v>0.1760981798396512</v>
       </c>
       <c r="T17">
-        <v>0.017888157512595</v>
+        <v>0.1424952084616319</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2266603333333334</v>
+        <v>1.87487</v>
       </c>
       <c r="H18">
-        <v>0.6799810000000001</v>
+        <v>3.74974</v>
       </c>
       <c r="I18">
-        <v>0.0196203656140888</v>
+        <v>0.3176430325746456</v>
       </c>
       <c r="J18">
-        <v>0.025010042916226</v>
+        <v>0.3056421375240455</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.008459666666667</v>
+        <v>0.06980833333333333</v>
       </c>
       <c r="N18">
-        <v>3.025379</v>
+        <v>0.209425</v>
       </c>
       <c r="O18">
-        <v>0.01651771199360982</v>
+        <v>0.002693585657110719</v>
       </c>
       <c r="P18">
-        <v>0.02275068864475349</v>
+        <v>0.003397766648833495</v>
       </c>
       <c r="Q18">
-        <v>0.2285778041998889</v>
+        <v>0.1308815499166667</v>
       </c>
       <c r="R18">
-        <v>2.057200237799</v>
+        <v>0.7852892995</v>
       </c>
       <c r="S18">
-        <v>0.0003240835484228442</v>
+        <v>0.0008555987166242184</v>
       </c>
       <c r="T18">
-        <v>0.0005689956993789805</v>
+        <v>0.001038500661357382</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2266603333333334</v>
+        <v>1.87487</v>
       </c>
       <c r="H19">
-        <v>0.6799810000000001</v>
+        <v>3.74974</v>
       </c>
       <c r="I19">
-        <v>0.0196203656140888</v>
+        <v>0.3176430325746456</v>
       </c>
       <c r="J19">
-        <v>0.025010042916226</v>
+        <v>0.3056421375240455</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.116002</v>
+        <v>0.09194599999999999</v>
       </c>
       <c r="N19">
-        <v>0.348006</v>
+        <v>0.275838</v>
       </c>
       <c r="O19">
-        <v>0.001900014140393048</v>
+        <v>0.003547777392795065</v>
       </c>
       <c r="P19">
-        <v>0.002616986550282158</v>
+        <v>0.004475268744805699</v>
       </c>
       <c r="Q19">
-        <v>0.02629305198733334</v>
+        <v>0.17238679702</v>
       </c>
       <c r="R19">
-        <v>0.236637467886</v>
+        <v>1.03432078212</v>
       </c>
       <c r="S19">
-        <v>3.727897210645024E-05</v>
+        <v>0.001126926769947194</v>
       </c>
       <c r="T19">
-        <v>6.545094593374302E-05</v>
+        <v>0.001367830705156966</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1656,19 +1656,19 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>1.92403</v>
+        <v>0.2603533333333333</v>
       </c>
       <c r="H20">
-        <v>3.84806</v>
+        <v>0.78106</v>
       </c>
       <c r="I20">
-        <v>0.1665495302919137</v>
+        <v>0.04410941683472324</v>
       </c>
       <c r="J20">
-        <v>0.1415335807091855</v>
+        <v>0.06366437351243846</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.623902</v>
+        <v>1.7455905</v>
       </c>
       <c r="N20">
-        <v>5.247803999999999</v>
+        <v>3.491181</v>
       </c>
       <c r="O20">
-        <v>0.04297728403825449</v>
+        <v>0.06735438749894324</v>
       </c>
       <c r="P20">
-        <v>0.03946320605540395</v>
+        <v>0.05664184489359518</v>
       </c>
       <c r="Q20">
-        <v>5.04846616506</v>
+        <v>0.45447030531</v>
       </c>
       <c r="R20">
-        <v>20.19386466024</v>
+        <v>2.72682183186</v>
       </c>
       <c r="S20">
-        <v>0.007157846469793448</v>
+        <v>0.00297096275383836</v>
       </c>
       <c r="T20">
-        <v>0.005585368859285731</v>
+        <v>0.003606067569739449</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1718,19 +1718,19 @@
         <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>1.92403</v>
+        <v>0.2603533333333333</v>
       </c>
       <c r="H21">
-        <v>3.84806</v>
+        <v>0.78106</v>
       </c>
       <c r="I21">
-        <v>0.1665495302919137</v>
+        <v>0.04410941683472324</v>
       </c>
       <c r="J21">
-        <v>0.1415335807091855</v>
+        <v>0.06366437351243846</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>28.808021</v>
       </c>
       <c r="O21">
-        <v>0.1572836309050415</v>
+        <v>0.3705234435972038</v>
       </c>
       <c r="P21">
-        <v>0.2166347807142577</v>
+        <v>0.4673889601179179</v>
       </c>
       <c r="Q21">
-        <v>18.47583221487667</v>
+        <v>2.500088098028889</v>
       </c>
       <c r="R21">
-        <v>110.85499328926</v>
+        <v>22.50079288226</v>
       </c>
       <c r="S21">
-        <v>0.02619551484984138</v>
+        <v>0.01634357302066613</v>
       </c>
       <c r="T21">
-        <v>0.03066109622063808</v>
+        <v>0.02975602533253733</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>1.92403</v>
+        <v>0.2603533333333333</v>
       </c>
       <c r="H22">
-        <v>3.84806</v>
+        <v>0.78106</v>
       </c>
       <c r="I22">
-        <v>0.1665495302919137</v>
+        <v>0.04410941683472324</v>
       </c>
       <c r="J22">
-        <v>0.1415335807091855</v>
+        <v>0.06366437351243846</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.146072</v>
+        <v>0.03863166666666667</v>
       </c>
       <c r="N22">
-        <v>0.438216</v>
+        <v>0.115895</v>
       </c>
       <c r="O22">
-        <v>0.002392535176251214</v>
+        <v>0.001490620077501955</v>
       </c>
       <c r="P22">
-        <v>0.003295360936646052</v>
+        <v>0.001880311165173966</v>
       </c>
       <c r="Q22">
-        <v>0.2810469101600001</v>
+        <v>0.01005788318888889</v>
       </c>
       <c r="R22">
-        <v>1.68628146096</v>
+        <v>0.09052094869999999</v>
       </c>
       <c r="S22">
-        <v>0.0003984756098115207</v>
+        <v>6.575038234074118E-05</v>
       </c>
       <c r="T22">
-        <v>0.0004664042330926909</v>
+        <v>0.0001197088323392438</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>1.92403</v>
+        <v>0.2603533333333333</v>
       </c>
       <c r="H23">
-        <v>3.84806</v>
+        <v>0.78106</v>
       </c>
       <c r="I23">
-        <v>0.1665495302919137</v>
+        <v>0.04410941683472324</v>
       </c>
       <c r="J23">
-        <v>0.1415335807091855</v>
+        <v>0.06366437351243846</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>47.5561205</v>
+        <v>14.3678575</v>
       </c>
       <c r="N23">
-        <v>95.112241</v>
+        <v>28.735715</v>
       </c>
       <c r="O23">
-        <v>0.7789288237464499</v>
+        <v>0.5543901857764452</v>
       </c>
       <c r="P23">
-        <v>0.7152389770986568</v>
+        <v>0.4662158484296736</v>
       </c>
       <c r="Q23">
-        <v>91.499402525615</v>
+        <v>3.740719592983333</v>
       </c>
       <c r="R23">
-        <v>365.99761010246</v>
+        <v>22.4443175579</v>
       </c>
       <c r="S23">
-        <v>0.1297302297258041</v>
+        <v>0.02445382779349288</v>
       </c>
       <c r="T23">
-        <v>0.101230333491548</v>
+        <v>0.02968133991184514</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>1.92403</v>
+        <v>0.2603533333333333</v>
       </c>
       <c r="H24">
-        <v>3.84806</v>
+        <v>0.78106</v>
       </c>
       <c r="I24">
-        <v>0.1665495302919137</v>
+        <v>0.04410941683472324</v>
       </c>
       <c r="J24">
-        <v>0.1415335807091855</v>
+        <v>0.06366437351243846</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.008459666666667</v>
+        <v>0.06980833333333333</v>
       </c>
       <c r="N24">
-        <v>3.025379</v>
+        <v>0.209425</v>
       </c>
       <c r="O24">
-        <v>0.01651771199360982</v>
+        <v>0.002693585657110719</v>
       </c>
       <c r="P24">
-        <v>0.02275068864475349</v>
+        <v>0.003397766648833495</v>
       </c>
       <c r="Q24">
-        <v>1.940306652456667</v>
+        <v>0.01817483227777778</v>
       </c>
       <c r="R24">
-        <v>11.64183991474</v>
+        <v>0.1635734905</v>
       </c>
       <c r="S24">
-        <v>0.002751017174032825</v>
+        <v>0.0001188124925295286</v>
       </c>
       <c r="T24">
-        <v>0.003219986427491767</v>
+        <v>0.000216316685039442</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>1.92403</v>
+        <v>0.2603533333333333</v>
       </c>
       <c r="H25">
-        <v>3.84806</v>
+        <v>0.78106</v>
       </c>
       <c r="I25">
-        <v>0.1665495302919137</v>
+        <v>0.04410941683472324</v>
       </c>
       <c r="J25">
-        <v>0.1415335807091855</v>
+        <v>0.06366437351243846</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.116002</v>
+        <v>0.09194599999999999</v>
       </c>
       <c r="N25">
-        <v>0.348006</v>
+        <v>0.275838</v>
       </c>
       <c r="O25">
-        <v>0.001900014140393048</v>
+        <v>0.003547777392795065</v>
       </c>
       <c r="P25">
-        <v>0.002616986550282158</v>
+        <v>0.004475268744805699</v>
       </c>
       <c r="Q25">
-        <v>0.22319132806</v>
+        <v>0.02393844758666666</v>
       </c>
       <c r="R25">
-        <v>1.33914796836</v>
+        <v>0.21544602828</v>
       </c>
       <c r="S25">
-        <v>0.0003164464626304564</v>
+        <v>0.0001564903918556052</v>
       </c>
       <c r="T25">
-        <v>0.0003703914771292126</v>
+        <v>0.0002849151809378517</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>3.223217</v>
+        <v>0.052945</v>
       </c>
       <c r="H26">
-        <v>9.669651000000002</v>
+        <v>0.158835</v>
       </c>
       <c r="I26">
-        <v>0.2790108664516205</v>
+        <v>0.008970014112799614</v>
       </c>
       <c r="J26">
-        <v>0.3556546234305484</v>
+        <v>0.01294667601317205</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.623902</v>
+        <v>1.7455905</v>
       </c>
       <c r="N26">
-        <v>5.247803999999999</v>
+        <v>3.491181</v>
       </c>
       <c r="O26">
-        <v>0.04297728403825449</v>
+        <v>0.06735438749894324</v>
       </c>
       <c r="P26">
-        <v>0.03946320605540395</v>
+        <v>0.05664184489359518</v>
       </c>
       <c r="Q26">
-        <v>8.457405532734001</v>
+        <v>0.0924202890225</v>
       </c>
       <c r="R26">
-        <v>50.744433196404</v>
+        <v>0.5545217341350001</v>
       </c>
       <c r="S26">
-        <v>0.01199112925725079</v>
+        <v>0.0006041698064244947</v>
       </c>
       <c r="T26">
-        <v>0.01403527168899683</v>
+        <v>0.0007333236146257207</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>3.223217</v>
+        <v>0.052945</v>
       </c>
       <c r="H27">
-        <v>9.669651000000002</v>
+        <v>0.158835</v>
       </c>
       <c r="I27">
-        <v>0.2790108664516205</v>
+        <v>0.008970014112799614</v>
       </c>
       <c r="J27">
-        <v>0.3556546234305484</v>
+        <v>0.01294667601317205</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>28.808021</v>
       </c>
       <c r="O27">
-        <v>0.1572836309050415</v>
+        <v>0.3705234435972038</v>
       </c>
       <c r="P27">
-        <v>0.2166347807142577</v>
+        <v>0.4673889601179179</v>
       </c>
       <c r="Q27">
-        <v>30.95150100785234</v>
+        <v>0.5084135572816666</v>
       </c>
       <c r="R27">
-        <v>278.563509070671</v>
+        <v>4.575722015535</v>
       </c>
       <c r="S27">
-        <v>0.04388384213747249</v>
+        <v>0.003323600518190029</v>
       </c>
       <c r="T27">
-        <v>0.07704716135688873</v>
+        <v>0.006051133438780077</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>3.223217</v>
+        <v>0.052945</v>
       </c>
       <c r="H28">
-        <v>9.669651000000002</v>
+        <v>0.158835</v>
       </c>
       <c r="I28">
-        <v>0.2790108664516205</v>
+        <v>0.008970014112799614</v>
       </c>
       <c r="J28">
-        <v>0.3556546234305484</v>
+        <v>0.01294667601317205</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.146072</v>
+        <v>0.03863166666666667</v>
       </c>
       <c r="N28">
-        <v>0.438216</v>
+        <v>0.115895</v>
       </c>
       <c r="O28">
-        <v>0.002392535176251214</v>
+        <v>0.001490620077501955</v>
       </c>
       <c r="P28">
-        <v>0.003295360936646052</v>
+        <v>0.001880311165173966</v>
       </c>
       <c r="Q28">
-        <v>0.4708217536240001</v>
+        <v>0.002045353591666667</v>
       </c>
       <c r="R28">
-        <v>4.237395782616001</v>
+        <v>0.018408182325</v>
       </c>
       <c r="S28">
-        <v>0.0006675433125418317</v>
+        <v>1.337088313201499E-05</v>
       </c>
       <c r="T28">
-        <v>0.001172010352990591</v>
+        <v>2.434377945945738E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>3.223217</v>
+        <v>0.052945</v>
       </c>
       <c r="H29">
-        <v>9.669651000000002</v>
+        <v>0.158835</v>
       </c>
       <c r="I29">
-        <v>0.2790108664516205</v>
+        <v>0.008970014112799614</v>
       </c>
       <c r="J29">
-        <v>0.3556546234305484</v>
+        <v>0.01294667601317205</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>47.5561205</v>
+        <v>14.3678575</v>
       </c>
       <c r="N29">
-        <v>95.112241</v>
+        <v>28.735715</v>
       </c>
       <c r="O29">
-        <v>0.7789288237464499</v>
+        <v>0.5543901857764452</v>
       </c>
       <c r="P29">
-        <v>0.7152389770986568</v>
+        <v>0.4662158484296736</v>
       </c>
       <c r="Q29">
-        <v>153.2836960496485</v>
+        <v>0.7607062153374999</v>
       </c>
       <c r="R29">
-        <v>919.7021762978911</v>
+        <v>4.564237292025</v>
       </c>
       <c r="S29">
-        <v>0.2173296060176386</v>
+        <v>0.004972887790412312</v>
       </c>
       <c r="T29">
-        <v>0.2543780490628734</v>
+        <v>0.006035945541825113</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>3.223217</v>
+        <v>0.052945</v>
       </c>
       <c r="H30">
-        <v>9.669651000000002</v>
+        <v>0.158835</v>
       </c>
       <c r="I30">
-        <v>0.2790108664516205</v>
+        <v>0.008970014112799614</v>
       </c>
       <c r="J30">
-        <v>0.3556546234305484</v>
+        <v>0.01294667601317205</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.008459666666667</v>
+        <v>0.06980833333333333</v>
       </c>
       <c r="N30">
-        <v>3.025379</v>
+        <v>0.209425</v>
       </c>
       <c r="O30">
-        <v>0.01651771199360982</v>
+        <v>0.002693585657110719</v>
       </c>
       <c r="P30">
-        <v>0.02275068864475349</v>
+        <v>0.003397766648833495</v>
       </c>
       <c r="Q30">
-        <v>3.250484341414334</v>
+        <v>0.003696002208333333</v>
       </c>
       <c r="R30">
-        <v>29.25435907272901</v>
+        <v>0.033264019875</v>
       </c>
       <c r="S30">
-        <v>0.004608621135135399</v>
+        <v>2.416150135831777E-05</v>
       </c>
       <c r="T30">
-        <v>0.008091387602735456</v>
+        <v>4.39897839708086E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,433 +2326,61 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.052945</v>
+      </c>
+      <c r="H31">
+        <v>0.158835</v>
+      </c>
+      <c r="I31">
+        <v>0.008970014112799614</v>
+      </c>
+      <c r="J31">
+        <v>0.01294667601317205</v>
+      </c>
+      <c r="K31">
         <v>3</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>3.223217</v>
-      </c>
-      <c r="H31">
-        <v>9.669651000000002</v>
-      </c>
-      <c r="I31">
-        <v>0.2790108664516205</v>
-      </c>
-      <c r="J31">
-        <v>0.3556546234305484</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.116002</v>
+        <v>0.09194599999999999</v>
       </c>
       <c r="N31">
-        <v>0.348006</v>
+        <v>0.275838</v>
       </c>
       <c r="O31">
-        <v>0.001900014140393048</v>
+        <v>0.003547777392795065</v>
       </c>
       <c r="P31">
-        <v>0.002616986550282158</v>
+        <v>0.004475268744805699</v>
       </c>
       <c r="Q31">
-        <v>0.3738996184340001</v>
+        <v>0.004868080969999999</v>
       </c>
       <c r="R31">
-        <v>3.365096565906001</v>
+        <v>0.04381272873</v>
       </c>
       <c r="S31">
-        <v>0.0005301245915813951</v>
+        <v>3.182361328244315E-05</v>
       </c>
       <c r="T31">
-        <v>0.0009307433660634107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.4836273333333334</v>
-      </c>
-      <c r="H32">
-        <v>1.450882</v>
-      </c>
-      <c r="I32">
-        <v>0.04186416282646189</v>
-      </c>
-      <c r="J32">
-        <v>0.05336416912587236</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>2.623902</v>
-      </c>
-      <c r="N32">
-        <v>5.247803999999999</v>
-      </c>
-      <c r="O32">
-        <v>0.04297728403825449</v>
-      </c>
-      <c r="P32">
-        <v>0.03946320605540395</v>
-      </c>
-      <c r="Q32">
-        <v>1.268990727188</v>
-      </c>
-      <c r="R32">
-        <v>7.613944363127999</v>
-      </c>
-      <c r="S32">
-        <v>0.001799208016816588</v>
-      </c>
-      <c r="T32">
-        <v>0.002105921202189727</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.4836273333333334</v>
-      </c>
-      <c r="H33">
-        <v>1.450882</v>
-      </c>
-      <c r="I33">
-        <v>0.04186416282646189</v>
-      </c>
-      <c r="J33">
-        <v>0.05336416912587236</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>9.602673666666666</v>
-      </c>
-      <c r="N33">
-        <v>28.808021</v>
-      </c>
-      <c r="O33">
-        <v>0.1572836309050415</v>
-      </c>
-      <c r="P33">
-        <v>0.2166347807142577</v>
-      </c>
-      <c r="Q33">
-        <v>4.644115458280222</v>
-      </c>
-      <c r="R33">
-        <v>41.797039124522</v>
-      </c>
-      <c r="S33">
-        <v>0.006584547534145789</v>
-      </c>
-      <c r="T33">
-        <v>0.01156053507658192</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.4836273333333334</v>
-      </c>
-      <c r="H34">
-        <v>1.450882</v>
-      </c>
-      <c r="I34">
-        <v>0.04186416282646189</v>
-      </c>
-      <c r="J34">
-        <v>0.05336416912587236</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>0.146072</v>
-      </c>
-      <c r="N34">
-        <v>0.438216</v>
-      </c>
-      <c r="O34">
-        <v>0.002392535176251214</v>
-      </c>
-      <c r="P34">
-        <v>0.003295360936646052</v>
-      </c>
-      <c r="Q34">
-        <v>0.07064441183466667</v>
-      </c>
-      <c r="R34">
-        <v>0.635799706512</v>
-      </c>
-      <c r="S34">
-        <v>0.0001001614821866185</v>
-      </c>
-      <c r="T34">
-        <v>0.0001758541983539731</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.4836273333333334</v>
-      </c>
-      <c r="H35">
-        <v>1.450882</v>
-      </c>
-      <c r="I35">
-        <v>0.04186416282646189</v>
-      </c>
-      <c r="J35">
-        <v>0.05336416912587236</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>47.5561205</v>
-      </c>
-      <c r="N35">
-        <v>95.112241</v>
-      </c>
-      <c r="O35">
-        <v>0.7789288237464499</v>
-      </c>
-      <c r="P35">
-        <v>0.7152389770986568</v>
-      </c>
-      <c r="Q35">
-        <v>22.99943974109367</v>
-      </c>
-      <c r="R35">
-        <v>137.996638446562</v>
-      </c>
-      <c r="S35">
-        <v>0.03260920310754581</v>
-      </c>
-      <c r="T35">
-        <v>0.03816813373930867</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.4836273333333334</v>
-      </c>
-      <c r="H36">
-        <v>1.450882</v>
-      </c>
-      <c r="I36">
-        <v>0.04186416282646189</v>
-      </c>
-      <c r="J36">
-        <v>0.05336416912587236</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>1.008459666666667</v>
-      </c>
-      <c r="N36">
-        <v>3.025379</v>
-      </c>
-      <c r="O36">
-        <v>0.01651771199360982</v>
-      </c>
-      <c r="P36">
-        <v>0.02275068864475349</v>
-      </c>
-      <c r="Q36">
-        <v>0.4877186593642223</v>
-      </c>
-      <c r="R36">
-        <v>4.389467934278</v>
-      </c>
-      <c r="S36">
-        <v>0.0006915001844210838</v>
-      </c>
-      <c r="T36">
-        <v>0.001214071596568689</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.4836273333333334</v>
-      </c>
-      <c r="H37">
-        <v>1.450882</v>
-      </c>
-      <c r="I37">
-        <v>0.04186416282646189</v>
-      </c>
-      <c r="J37">
-        <v>0.05336416912587236</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M37">
-        <v>0.116002</v>
-      </c>
-      <c r="N37">
-        <v>0.348006</v>
-      </c>
-      <c r="O37">
-        <v>0.001900014140393048</v>
-      </c>
-      <c r="P37">
-        <v>0.002616986550282158</v>
-      </c>
-      <c r="Q37">
-        <v>0.05610173792133334</v>
-      </c>
-      <c r="R37">
-        <v>0.5049156412920001</v>
-      </c>
-      <c r="S37">
-        <v>7.954250134599456E-05</v>
-      </c>
-      <c r="T37">
-        <v>0.0001396533128693904</v>
+        <v>5.793985451087454E-05</v>
       </c>
     </row>
   </sheetData>
